--- a/data/class.xlsx
+++ b/data/class.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7840" activeTab="4"/>
+    <workbookView windowWidth="19100" windowHeight="7840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Список адресов и ID" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Адреса" sheetId="3" r:id="rId3"/>
     <sheet name="Лист4" sheetId="4" r:id="rId4"/>
     <sheet name="Лист5" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -1327,10 +1327,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1411,8 +1411,99 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1435,75 +1526,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1518,37 +1548,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1582,37 +1582,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1624,31 +1618,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,13 +1636,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1684,7 +1654,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1696,7 +1672,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1708,13 +1720,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1726,31 +1750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1762,7 +1762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1854,23 +1854,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1886,15 +1906,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1915,27 +1926,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1943,8 +1943,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1953,16 +1953,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1974,131 +1974,131 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2115,9 +2115,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2509,719 +2506,719 @@
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:13">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="22"/>
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" ht="15.25" spans="1:13">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
     </row>
     <row r="3" ht="16" customHeight="1" spans="1:13">
-      <c r="A3" s="23"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25" t="s">
+      <c r="I3" s="24"/>
+      <c r="J3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="34" t="s">
+      <c r="K3" s="24"/>
+      <c r="L3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="34"/>
+      <c r="M3" s="33"/>
     </row>
     <row r="4" ht="65.75" spans="1:13">
-      <c r="A4" s="26">
+      <c r="A4" s="25">
         <v>1</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" ht="78.75" spans="1:13">
-      <c r="A5" s="26">
+      <c r="A5" s="25">
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="35" t="s">
+      <c r="M5" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" ht="65.75" spans="1:13">
-      <c r="A6" s="26">
+      <c r="A6" s="25">
         <v>3</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="27" t="s">
+      <c r="L6" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" ht="65.75" spans="1:13">
-      <c r="A7" s="26">
+      <c r="A7" s="25">
         <v>4</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="35" t="s">
+      <c r="M7" s="34" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" ht="78.75" spans="1:13">
-      <c r="A8" s="26">
+      <c r="A8" s="25">
         <v>5</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="36" t="s">
+      <c r="M8" s="35" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" ht="65.75" spans="1:13">
-      <c r="A9" s="26">
+      <c r="A9" s="25">
         <v>6</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="L9" s="27" t="s">
+      <c r="L9" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="M9" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" ht="65.75" spans="1:13">
-      <c r="A10" s="26">
+      <c r="A10" s="25">
         <v>7</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="L10" s="27" t="s">
+      <c r="L10" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M10" s="23" t="s">
+      <c r="M10" s="22" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="11" ht="78.75" spans="1:13">
-      <c r="A11" s="26">
+      <c r="A11" s="25">
         <v>8</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="L11" s="27" t="s">
+      <c r="L11" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="M11" s="23" t="s">
+      <c r="M11" s="22" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="12" ht="52.75" spans="1:13">
-      <c r="A12" s="26">
+      <c r="A12" s="25">
         <v>9</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="K12" s="37" t="s">
+      <c r="K12" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="L12" s="27" t="s">
+      <c r="L12" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="M12" s="36" t="s">
+      <c r="M12" s="35" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="13" ht="65.75" spans="1:13">
-      <c r="A13" s="26">
+      <c r="A13" s="25">
         <v>10</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="K13" s="28" t="s">
+      <c r="K13" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="L13" s="27" t="s">
+      <c r="L13" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="M13" s="36" t="s">
+      <c r="M13" s="35" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="14" ht="65.75" spans="1:13">
-      <c r="A14" s="26">
+      <c r="A14" s="25">
         <v>11</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="K14" s="28" t="s">
+      <c r="K14" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="L14" s="27" t="s">
+      <c r="L14" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="M14" s="36" t="s">
+      <c r="M14" s="35" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="15" ht="52.75" spans="1:13">
-      <c r="A15" s="26">
+      <c r="A15" s="25">
         <v>12</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="I15" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="28"/>
-      <c r="L15" s="27" t="s">
+      <c r="K15" s="27"/>
+      <c r="L15" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="M15" s="23" t="s">
+      <c r="M15" s="22" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" ht="52.75" spans="1:13">
-      <c r="A16" s="26">
+      <c r="A16" s="25">
         <v>13</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="K16" s="28" t="s">
+      <c r="K16" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="L16" s="27" t="s">
+      <c r="L16" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="M16" s="22" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="17" ht="52.75" spans="1:13">
-      <c r="A17" s="26">
+      <c r="A17" s="25">
         <v>14</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="K17" s="28" t="s">
+      <c r="K17" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="L17" s="27" t="s">
+      <c r="L17" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="M17" s="23" t="s">
+      <c r="M17" s="22" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="18" ht="52.75" spans="1:13">
-      <c r="A18" s="26">
+      <c r="A18" s="25">
         <v>15</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="J18" s="27" t="s">
+      <c r="J18" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="K18" s="29" t="s">
+      <c r="K18" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="L18" s="27" t="s">
+      <c r="L18" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="M18" s="23" t="s">
+      <c r="M18" s="22" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="19" ht="65.75" spans="1:13">
-      <c r="A19" s="26">
+      <c r="A19" s="25">
         <v>16</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="J19" s="27" t="s">
+      <c r="J19" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="K19" s="28" t="s">
+      <c r="K19" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="L19" s="32" t="s">
+      <c r="L19" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="M19" s="32" t="s">
+      <c r="M19" s="31" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3287,7 +3284,7 @@
   <sheetPr/>
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="C103" sqref="C1:I103"/>
     </sheetView>
   </sheetViews>
@@ -3334,16 +3331,16 @@
       <c r="I1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3">
@@ -3369,10 +3366,10 @@
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="3">
@@ -3398,10 +3395,10 @@
       </c>
     </row>
     <row r="4" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="3">
@@ -3427,10 +3424,10 @@
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="3">
@@ -3456,10 +3453,10 @@
       </c>
     </row>
     <row r="6" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="3">
@@ -3485,10 +3482,10 @@
       </c>
     </row>
     <row r="7" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C7" s="3">
@@ -3514,10 +3511,10 @@
       </c>
     </row>
     <row r="8" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C8" s="3">
@@ -3543,10 +3540,10 @@
       </c>
     </row>
     <row r="9" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>106</v>
       </c>
       <c r="C9" s="3">
@@ -3572,10 +3569,10 @@
       </c>
     </row>
     <row r="10" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C10" s="3">
@@ -3601,10 +3598,10 @@
       </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>130</v>
       </c>
       <c r="C11" s="3">
@@ -3630,10 +3627,10 @@
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>142</v>
       </c>
       <c r="C12" s="3">
@@ -3659,10 +3656,10 @@
       </c>
     </row>
     <row r="13" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>152</v>
       </c>
       <c r="C13" s="3">
@@ -3688,10 +3685,10 @@
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C14" s="3">
@@ -3717,10 +3714,10 @@
       </c>
     </row>
     <row r="15" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>176</v>
       </c>
       <c r="C15" s="3">
@@ -3746,10 +3743,10 @@
       </c>
     </row>
     <row r="16" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>187</v>
       </c>
       <c r="C16" s="3">
@@ -3775,10 +3772,10 @@
       </c>
     </row>
     <row r="17" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="3">
@@ -3804,10 +3801,10 @@
       </c>
     </row>
     <row r="18" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="3">
@@ -3833,10 +3830,10 @@
       </c>
     </row>
     <row r="19" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="3">
@@ -3862,10 +3859,10 @@
       </c>
     </row>
     <row r="20" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="3">
@@ -3891,10 +3888,10 @@
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C21" s="3">
@@ -3915,15 +3912,15 @@
       <c r="H21" s="3">
         <v>21</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="4">
         <v>39476332</v>
       </c>
     </row>
     <row r="22" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C22" s="3">
@@ -3949,10 +3946,10 @@
       </c>
     </row>
     <row r="23" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C23" s="3">
@@ -3978,10 +3975,10 @@
       </c>
     </row>
     <row r="24" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C24" s="3">
@@ -4007,10 +4004,10 @@
       </c>
     </row>
     <row r="25" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>132</v>
       </c>
       <c r="C25" s="3">
@@ -4036,10 +4033,10 @@
       </c>
     </row>
     <row r="26" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>144</v>
       </c>
       <c r="C26" s="3">
@@ -4065,10 +4062,10 @@
       </c>
     </row>
     <row r="27" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>154</v>
       </c>
       <c r="C27" s="3">
@@ -4094,10 +4091,10 @@
       </c>
     </row>
     <row r="28" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>166</v>
       </c>
       <c r="C28" s="3">
@@ -4123,10 +4120,10 @@
       </c>
     </row>
     <row r="29" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>189</v>
       </c>
       <c r="C29" s="3">
@@ -4152,10 +4149,10 @@
       </c>
     </row>
     <row r="30" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="3">
@@ -4181,10 +4178,10 @@
       </c>
     </row>
     <row r="31" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="3">
@@ -4210,10 +4207,10 @@
       </c>
     </row>
     <row r="32" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="3">
@@ -4239,10 +4236,10 @@
       </c>
     </row>
     <row r="33" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="3">
@@ -4268,10 +4265,10 @@
       </c>
     </row>
     <row r="34" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C34" s="3">
@@ -4297,10 +4294,10 @@
       </c>
     </row>
     <row r="35" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C35" s="3">
@@ -4326,10 +4323,10 @@
       </c>
     </row>
     <row r="36" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C36" s="3">
@@ -4355,10 +4352,10 @@
       </c>
     </row>
     <row r="37" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>98</v>
       </c>
       <c r="C37" s="3">
@@ -4384,10 +4381,10 @@
       </c>
     </row>
     <row r="38" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>110</v>
       </c>
       <c r="C38" s="3">
@@ -4413,10 +4410,10 @@
       </c>
     </row>
     <row r="39" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>122</v>
       </c>
       <c r="C39" s="3">
@@ -4442,10 +4439,10 @@
       </c>
     </row>
     <row r="40" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>134</v>
       </c>
       <c r="C40" s="3">
@@ -4471,10 +4468,10 @@
       </c>
     </row>
     <row r="41" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>146</v>
       </c>
       <c r="C41" s="3">
@@ -4500,10 +4497,10 @@
       </c>
     </row>
     <row r="42" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>156</v>
       </c>
       <c r="C42" s="3">
@@ -4529,10 +4526,10 @@
       </c>
     </row>
     <row r="43" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>168</v>
       </c>
       <c r="C43" s="3">
@@ -4558,10 +4555,10 @@
       </c>
     </row>
     <row r="44" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>179</v>
       </c>
       <c r="C44" s="3">
@@ -4587,10 +4584,10 @@
       </c>
     </row>
     <row r="45" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>191</v>
       </c>
       <c r="C45" s="3">
@@ -4616,10 +4613,10 @@
       </c>
     </row>
     <row r="46" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>317</v>
       </c>
       <c r="C46" s="3">
@@ -4645,10 +4642,10 @@
       </c>
     </row>
     <row r="47" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C47" s="3">
@@ -4674,10 +4671,10 @@
       </c>
     </row>
     <row r="48" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C48" s="3">
@@ -4703,10 +4700,10 @@
       </c>
     </row>
     <row r="49" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C49" s="3">
@@ -4732,10 +4729,10 @@
       </c>
     </row>
     <row r="50" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C50" s="3">
@@ -4761,10 +4758,10 @@
       </c>
     </row>
     <row r="51" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="3">
@@ -4790,10 +4787,10 @@
       </c>
     </row>
     <row r="52" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C52" s="3">
@@ -4819,10 +4816,10 @@
       </c>
     </row>
     <row r="53" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C53" s="3">
@@ -4848,10 +4845,10 @@
       </c>
     </row>
     <row r="54" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C54" s="3">
@@ -4877,10 +4874,10 @@
       </c>
     </row>
     <row r="55" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C55" s="3">
@@ -4906,10 +4903,10 @@
       </c>
     </row>
     <row r="56" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>124</v>
       </c>
       <c r="C56" s="3">
@@ -4935,10 +4932,10 @@
       </c>
     </row>
     <row r="57" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C57" s="3">
@@ -4964,10 +4961,10 @@
       </c>
     </row>
     <row r="58" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>148</v>
       </c>
       <c r="C58" s="3">
@@ -4993,10 +4990,10 @@
       </c>
     </row>
     <row r="59" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>158</v>
       </c>
       <c r="C59" s="3">
@@ -5022,10 +5019,10 @@
       </c>
     </row>
     <row r="60" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>170</v>
       </c>
       <c r="C60" s="3">
@@ -5051,10 +5048,10 @@
       </c>
     </row>
     <row r="61" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>181</v>
       </c>
       <c r="C61" s="3">
@@ -5080,10 +5077,10 @@
       </c>
     </row>
     <row r="62" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>193</v>
       </c>
       <c r="C62" s="3">
@@ -5109,10 +5106,10 @@
       </c>
     </row>
     <row r="63" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C63" s="3">
@@ -5138,10 +5135,10 @@
       </c>
     </row>
     <row r="64" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C64" s="3">
@@ -5167,10 +5164,10 @@
       </c>
     </row>
     <row r="65" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C65" s="3">
@@ -5196,10 +5193,10 @@
       </c>
     </row>
     <row r="66" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C66" s="3">
@@ -5225,10 +5222,10 @@
       </c>
     </row>
     <row r="67" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="9" t="s">
         <v>66</v>
       </c>
       <c r="C67" s="3">
@@ -5254,10 +5251,10 @@
       </c>
     </row>
     <row r="68" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C68" s="3">
@@ -5283,10 +5280,10 @@
       </c>
     </row>
     <row r="69" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="9" t="s">
         <v>90</v>
       </c>
       <c r="C69" s="3">
@@ -5312,10 +5309,10 @@
       </c>
     </row>
     <row r="70" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C70" s="3">
@@ -5341,10 +5338,10 @@
       </c>
     </row>
     <row r="71" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="11" t="s">
         <v>114</v>
       </c>
       <c r="C71" s="3">
@@ -5370,10 +5367,10 @@
       </c>
     </row>
     <row r="72" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="9" t="s">
         <v>126</v>
       </c>
       <c r="C72" s="3">
@@ -5399,10 +5396,10 @@
       </c>
     </row>
     <row r="73" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C73" s="3">
@@ -5428,10 +5425,10 @@
       </c>
     </row>
     <row r="74" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C74" s="3">
@@ -5457,10 +5454,10 @@
       </c>
     </row>
     <row r="75" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="9" t="s">
         <v>172</v>
       </c>
       <c r="C75" s="3">
@@ -5486,10 +5483,10 @@
       </c>
     </row>
     <row r="76" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>183</v>
       </c>
       <c r="C76" s="3">
@@ -5515,10 +5512,10 @@
       </c>
     </row>
     <row r="77" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="9" t="s">
         <v>195</v>
       </c>
       <c r="C77" s="3">
@@ -5544,10 +5541,10 @@
       </c>
     </row>
     <row r="78" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C78" s="3">
@@ -5573,10 +5570,10 @@
       </c>
     </row>
     <row r="79" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C79" s="3">
@@ -5602,10 +5599,10 @@
       </c>
     </row>
     <row r="80" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C80" s="3">
@@ -5631,10 +5628,10 @@
       </c>
     </row>
     <row r="81" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="12" t="s">
         <v>56</v>
       </c>
       <c r="C81" s="3">
@@ -5660,10 +5657,10 @@
       </c>
     </row>
     <row r="82" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C82" s="3">
@@ -5689,10 +5686,10 @@
       </c>
     </row>
     <row r="83" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="7" t="s">
         <v>80</v>
       </c>
       <c r="C83" s="3">
@@ -5718,10 +5715,10 @@
       </c>
     </row>
     <row r="84" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="7" t="s">
         <v>92</v>
       </c>
       <c r="C84" s="3">
@@ -5747,10 +5744,10 @@
       </c>
     </row>
     <row r="85" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="7" t="s">
         <v>104</v>
       </c>
       <c r="C85" s="3">
@@ -5776,10 +5773,10 @@
       </c>
     </row>
     <row r="86" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="10" t="s">
         <v>116</v>
       </c>
       <c r="C86" s="3">
@@ -5805,10 +5802,10 @@
       </c>
     </row>
     <row r="87" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="10" t="s">
         <v>128</v>
       </c>
       <c r="C87" s="3">
@@ -5834,10 +5831,10 @@
       </c>
     </row>
     <row r="88" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="10" t="s">
         <v>140</v>
       </c>
       <c r="C88" s="3">
@@ -5863,10 +5860,10 @@
       </c>
     </row>
     <row r="89" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="7" t="s">
         <v>162</v>
       </c>
       <c r="C89" s="3">
@@ -5892,10 +5889,10 @@
       </c>
     </row>
     <row r="90" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A90" s="18" t="s">
+      <c r="A90" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="B90" s="19" t="s">
+      <c r="B90" s="18" t="s">
         <v>235</v>
       </c>
       <c r="C90" s="3" t="s">
@@ -5916,15 +5913,15 @@
       <c r="H90" s="3">
         <v>96</v>
       </c>
-      <c r="I90" s="6">
+      <c r="I90" s="4">
         <v>60779717</v>
       </c>
     </row>
     <row r="91" s="3" customFormat="1" ht="14.5" spans="1:9">
-      <c r="A91" s="20" t="s">
+      <c r="A91" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="B91" s="21" t="s">
+      <c r="B91" s="20" t="s">
         <v>235</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -5945,44 +5942,44 @@
       <c r="H91" s="3">
         <v>98</v>
       </c>
-      <c r="I91" s="6">
+      <c r="I91" s="4">
         <v>60888568</v>
       </c>
     </row>
-    <row r="92" s="6" customFormat="1" ht="14.5" spans="1:9">
-      <c r="A92" s="6" t="s">
+    <row r="92" s="4" customFormat="1" ht="14.5" spans="1:9">
+      <c r="A92" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="F92" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="G92" s="6" t="s">
+      <c r="G92" s="4" t="s">
         <v>235</v>
       </c>
       <c r="H92" s="3">
         <v>100</v>
       </c>
-      <c r="I92" s="6">
+      <c r="I92" s="4">
         <v>397524</v>
       </c>
     </row>
     <row r="93" s="3" customFormat="1" ht="14.5" spans="1:9">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="B93" s="21" t="s">
+      <c r="B93" s="20" t="s">
         <v>235</v>
       </c>
       <c r="C93" s="3" t="s">
@@ -5991,10 +5988,10 @@
       <c r="D93" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="F93" s="4" t="s">
         <v>406</v>
       </c>
       <c r="G93" s="3" t="s">
@@ -6003,15 +6000,15 @@
       <c r="H93" s="3">
         <v>102</v>
       </c>
-      <c r="I93" s="6">
+      <c r="I93" s="4">
         <v>61286374</v>
       </c>
     </row>
     <row r="94" s="3" customFormat="1" ht="14.5" spans="1:9">
-      <c r="A94" s="20" t="s">
+      <c r="A94" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="B94" s="21" t="s">
+      <c r="B94" s="20" t="s">
         <v>235</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -6020,10 +6017,10 @@
       <c r="D94" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="E94" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="F94" s="6" t="s">
+      <c r="F94" s="4" t="s">
         <v>296</v>
       </c>
       <c r="G94" s="3" t="s">
@@ -6032,15 +6029,15 @@
       <c r="H94" s="3">
         <v>104</v>
       </c>
-      <c r="I94" s="6">
+      <c r="I94" s="4">
         <v>48188468</v>
       </c>
     </row>
     <row r="95" s="3" customFormat="1" ht="14.5" spans="1:9">
-      <c r="A95" s="20" t="s">
+      <c r="A95" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="B95" s="21" t="s">
+      <c r="B95" s="20" t="s">
         <v>235</v>
       </c>
       <c r="C95" s="3" t="s">
@@ -6049,10 +6046,10 @@
       <c r="D95" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E95" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="F95" s="6" t="s">
+      <c r="F95" s="4" t="s">
         <v>232</v>
       </c>
       <c r="G95" s="3" t="s">
@@ -6061,15 +6058,15 @@
       <c r="H95" s="3">
         <v>106</v>
       </c>
-      <c r="I95" s="6">
+      <c r="I95" s="4">
         <v>61391556</v>
       </c>
     </row>
     <row r="96" s="3" customFormat="1" ht="14.5" spans="1:9">
-      <c r="A96" s="20" t="s">
+      <c r="A96" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="B96" s="21" t="s">
+      <c r="B96" s="20" t="s">
         <v>235</v>
       </c>
       <c r="C96" s="3" t="s">
@@ -6078,10 +6075,10 @@
       <c r="D96" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E96" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="F96" s="6" t="s">
+      <c r="F96" s="4" t="s">
         <v>410</v>
       </c>
       <c r="G96" s="3" t="s">
@@ -6090,15 +6087,15 @@
       <c r="H96" s="3">
         <v>108</v>
       </c>
-      <c r="I96" s="6">
+      <c r="I96" s="4">
         <v>52922799</v>
       </c>
     </row>
     <row r="97" s="3" customFormat="1" ht="14.5" spans="1:9">
-      <c r="A97" s="20" t="s">
+      <c r="A97" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="B97" s="21" t="s">
+      <c r="B97" s="20" t="s">
         <v>235</v>
       </c>
       <c r="C97" s="3" t="s">
@@ -6107,10 +6104,10 @@
       <c r="D97" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="E97" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="F97" s="4" t="s">
         <v>211</v>
       </c>
       <c r="G97" s="3" t="s">
@@ -6119,15 +6116,15 @@
       <c r="H97" s="3">
         <v>110</v>
       </c>
-      <c r="I97" s="6">
+      <c r="I97" s="4">
         <v>61844319</v>
       </c>
     </row>
     <row r="98" s="3" customFormat="1" ht="14.5" spans="1:9">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="B98" s="21" t="s">
+      <c r="B98" s="20" t="s">
         <v>235</v>
       </c>
       <c r="C98" s="3" t="s">
@@ -6136,10 +6133,10 @@
       <c r="D98" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E98" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="F98" s="4" t="s">
         <v>226</v>
       </c>
       <c r="G98" s="3" t="s">
@@ -6148,15 +6145,15 @@
       <c r="H98" s="3">
         <v>112</v>
       </c>
-      <c r="I98" s="6">
+      <c r="I98" s="4">
         <v>61867473</v>
       </c>
     </row>
     <row r="99" s="3" customFormat="1" ht="14.5" spans="1:9">
-      <c r="A99" s="20" t="s">
+      <c r="A99" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="B99" s="21" t="s">
+      <c r="B99" s="20" t="s">
         <v>235</v>
       </c>
       <c r="C99" s="3" t="s">
@@ -6165,10 +6162,10 @@
       <c r="D99" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="E99" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="F99" s="6" t="s">
+      <c r="F99" s="4" t="s">
         <v>336</v>
       </c>
       <c r="G99" s="3" t="s">
@@ -6177,15 +6174,15 @@
       <c r="H99" s="3">
         <v>114</v>
       </c>
-      <c r="I99" s="6">
+      <c r="I99" s="4">
         <v>58337887</v>
       </c>
     </row>
     <row r="100" s="3" customFormat="1" ht="14.5" spans="1:9">
-      <c r="A100" s="20" t="s">
+      <c r="A100" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="B100" s="21" t="s">
+      <c r="B100" s="20" t="s">
         <v>235</v>
       </c>
       <c r="C100" s="3" t="s">
@@ -6194,10 +6191,10 @@
       <c r="D100" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="E100" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="F100" s="4" t="s">
         <v>414</v>
       </c>
       <c r="G100" s="3" t="s">
@@ -6206,15 +6203,15 @@
       <c r="H100" s="3">
         <v>116</v>
       </c>
-      <c r="I100" s="6">
+      <c r="I100" s="4">
         <v>60413563</v>
       </c>
     </row>
     <row r="101" s="3" customFormat="1" ht="14.5" spans="1:9">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="B101" s="21" t="s">
+      <c r="B101" s="20" t="s">
         <v>235</v>
       </c>
       <c r="C101" s="3" t="s">
@@ -6223,10 +6220,10 @@
       <c r="D101" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E101" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="F101" s="4" t="s">
         <v>234</v>
       </c>
       <c r="G101" s="3" t="s">
@@ -6235,15 +6232,15 @@
       <c r="H101" s="3">
         <v>118</v>
       </c>
-      <c r="I101" s="6">
+      <c r="I101" s="4">
         <v>62387981</v>
       </c>
     </row>
     <row r="102" s="3" customFormat="1" ht="14.5" spans="1:9">
-      <c r="A102" s="20" t="s">
+      <c r="A102" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="B102" s="21" t="s">
+      <c r="B102" s="20" t="s">
         <v>235</v>
       </c>
       <c r="C102" s="3" t="s">
@@ -6252,10 +6249,10 @@
       <c r="D102" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="E102" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="F102" s="4" t="s">
         <v>416</v>
       </c>
       <c r="G102" s="3" t="s">
@@ -6264,15 +6261,15 @@
       <c r="H102" s="3">
         <v>120</v>
       </c>
-      <c r="I102" s="6">
+      <c r="I102" s="4">
         <v>62564125</v>
       </c>
     </row>
     <row r="103" s="3" customFormat="1" ht="14.5" spans="1:9">
-      <c r="A103" s="20" t="s">
+      <c r="A103" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="B103" s="21" t="s">
+      <c r="B103" s="20" t="s">
         <v>235</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -6281,10 +6278,10 @@
       <c r="D103" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="E103" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="F103" s="6" t="s">
+      <c r="F103" s="4" t="s">
         <v>418</v>
       </c>
       <c r="G103" s="3" t="s">
@@ -6293,47 +6290,47 @@
       <c r="H103" s="3">
         <v>122</v>
       </c>
-      <c r="I103" s="6">
+      <c r="I103" s="4">
         <v>62608222</v>
       </c>
     </row>
     <row r="104" s="3" customFormat="1" ht="14.5" spans="1:9">
-      <c r="A104" s="20"/>
-      <c r="B104" s="21"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="20"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
       <c r="I104" s="5"/>
     </row>
     <row r="105" s="3" customFormat="1" ht="14.5" spans="1:9">
-      <c r="A105" s="20"/>
-      <c r="B105" s="21"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
+      <c r="A105" s="19"/>
+      <c r="B105" s="20"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
       <c r="I105" s="5"/>
     </row>
     <row r="106" s="3" customFormat="1" ht="14.5" spans="1:9">
-      <c r="A106" s="20"/>
-      <c r="B106" s="21"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
+      <c r="A106" s="19"/>
+      <c r="B106" s="20"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
       <c r="I106" s="5"/>
     </row>
     <row r="107" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A107" s="20"/>
-      <c r="B107" s="21"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="20"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
       <c r="I107" s="5"/>
     </row>
     <row r="108" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A108" s="15" t="s">
+      <c r="A108" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B108" s="10"/>
+      <c r="B108" s="9"/>
       <c r="C108" s="3">
         <v>5</v>
       </c>
@@ -6355,10 +6352,10 @@
       <c r="I108"/>
     </row>
     <row r="109" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A109" s="15" t="s">
+      <c r="A109" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C109" s="3">
@@ -6381,10 +6378,10 @@
     </row>
     <row r="110" ht="14.75"/>
     <row r="111" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A111" s="22" t="s">
+      <c r="A111" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C111" s="3">
@@ -6409,10 +6406,10 @@
     </row>
     <row r="113" ht="14.75"/>
     <row r="114" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A114" s="15" t="s">
+      <c r="A114" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C114" s="3">
@@ -6438,10 +6435,10 @@
       </c>
     </row>
     <row r="115" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A115" s="16" t="s">
+      <c r="A115" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="13" t="s">
         <v>120</v>
       </c>
       <c r="C115" s="3">
@@ -6465,10 +6462,10 @@
       <c r="I115"/>
     </row>
     <row r="116" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A116" s="16" t="s">
+      <c r="A116" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="13" t="s">
         <v>120</v>
       </c>
       <c r="C116" s="3">
@@ -6492,10 +6489,10 @@
       <c r="I116"/>
     </row>
     <row r="117" s="3" customFormat="1" ht="15.25" spans="1:9">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C117" s="3">
@@ -6576,485 +6573,485 @@
   <sheetPr/>
   <dimension ref="A1:A96"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" ht="15.25" spans="1:1">
-      <c r="A1" s="7"/>
+      <c r="A1" s="6"/>
     </row>
     <row r="2" ht="15.25" spans="1:1">
-      <c r="A2" s="8"/>
+      <c r="A2" s="7"/>
     </row>
     <row r="3" ht="15.25" spans="1:1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="4" ht="15.25" spans="1:1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="1:1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="1:1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="7" ht="15.25" spans="1:1">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="8" ht="15.25" spans="1:1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="9" ht="15.25" spans="1:1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="1:1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11" ht="15.25" spans="1:1">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:1">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="1:1">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:1">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="1:1">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="1:1">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="1:1">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:1">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:1">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="21" ht="15.25" spans="1:1">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" ht="15.25" spans="1:1">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="23" ht="15.25" spans="1:1">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24" ht="15.25" spans="1:1">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" ht="15.25" spans="1:1">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" ht="15.25" spans="1:1">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27" ht="15.25" spans="1:1">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="28" ht="15.25" spans="1:1">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="29" ht="15.25" spans="1:1">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="30" ht="15.25" spans="1:1">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="31" ht="15.25" spans="1:1">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="32" ht="15.25" spans="1:1">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="33" ht="15.25" spans="1:1">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="34" ht="15.25" spans="1:1">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="35" ht="15.25" spans="1:1">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="36" ht="15.25" spans="1:1">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="37" ht="15.25" spans="1:1">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="38" ht="15.25" spans="1:1">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="39" ht="15.25" spans="1:1">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="40" ht="15.25" spans="1:1">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="15.25" spans="1:1">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="42" ht="15.25" spans="1:1">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="43" ht="15.25" spans="1:1">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="44" ht="15.25" spans="1:1">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="45" ht="15.25" spans="1:1">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="46" ht="15.25" spans="1:1">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="47" ht="15.25" spans="1:1">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="48" ht="15.25" spans="1:1">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="49" ht="15.25" spans="1:1">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="50" ht="15.25" spans="1:1">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="51" ht="15.25" spans="1:1">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="52" ht="15.25" spans="1:1">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="53" ht="15.25" spans="1:1">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="54" ht="15.25" spans="1:1">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="7" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="55" ht="15.25" spans="1:1">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="56" ht="15.25" spans="1:1">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="57" ht="15.25" spans="1:1">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="9" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="58" ht="15.25" spans="1:1">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="59" ht="15.25" spans="1:1">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="60" ht="15.25" spans="1:1">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="61" ht="15.25" spans="1:1">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="62" ht="15.25" spans="1:1">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="63" ht="15.25" spans="1:1">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="8" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="64" ht="15.25" spans="1:1">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="65" ht="15.25" spans="1:1">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="66" ht="15.25" spans="1:1">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="67" ht="15.25" spans="1:1">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="9" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="68" ht="15.25" spans="1:1">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="69" ht="15.25" spans="1:1">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="70" ht="15.25" spans="1:1">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="71" ht="15.25" spans="1:1">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="72" ht="15.25" spans="1:1">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="73" ht="15.25" spans="1:1">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="74" ht="15.25" spans="1:1">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="75" ht="15.25" spans="1:1">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="76" ht="15.25" spans="1:1">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="77" ht="15.25" spans="1:1">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="8" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="78" ht="15.25" spans="1:1">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="79" ht="15.25" spans="1:1">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="8" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="80" ht="15.25" spans="1:1">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="81" ht="15.25" spans="1:1">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="82" ht="15.25" spans="1:1">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="9" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="83" ht="15.25" spans="1:1">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="7" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="84" ht="15.25" spans="1:1">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="9" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="85" ht="15.25" spans="1:1">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="86" ht="15.25" spans="1:1">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="87" ht="15.25" spans="1:1">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="88" ht="15.25" spans="1:1">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="9" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="89" ht="15.25" spans="1:1">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="90" ht="15.25" spans="1:1">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="91" ht="15.25" spans="1:1">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="92" ht="15.25" spans="1:1">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="8" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="93" ht="15.25" spans="1:1">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="94" ht="15.25" spans="1:1">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="13" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="95" ht="15.25" spans="1:1">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="13" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="96" ht="15.25" spans="1:1">
-      <c r="A96" s="10"/>
+      <c r="A96" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A1:A96">
@@ -8971,7 +8968,7 @@
   <sheetPr/>
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -9335,7 +9332,7 @@
       <c r="D21" s="3">
         <v>21</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="4">
         <v>39476332</v>
       </c>
     </row>
@@ -10508,7 +10505,7 @@
       <c r="D90" s="3">
         <v>96</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E90" s="4">
         <v>60779717</v>
       </c>
     </row>
@@ -10525,24 +10522,24 @@
       <c r="D91" s="3">
         <v>98</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E91" s="4">
         <v>60888568</v>
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="4" t="s">
         <v>268</v>
       </c>
       <c r="D92" s="3">
         <v>100</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E92" s="4">
         <v>397524</v>
       </c>
     </row>
@@ -10550,16 +10547,16 @@
       <c r="A93" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="4" t="s">
         <v>406</v>
       </c>
       <c r="D93" s="3">
         <v>102</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E93" s="4">
         <v>61286374</v>
       </c>
     </row>
@@ -10567,16 +10564,16 @@
       <c r="A94" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="4" t="s">
         <v>296</v>
       </c>
       <c r="D94" s="3">
         <v>104</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E94" s="4">
         <v>48188468</v>
       </c>
     </row>
@@ -10584,16 +10581,16 @@
       <c r="A95" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="4" t="s">
         <v>232</v>
       </c>
       <c r="D95" s="3">
         <v>106</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E95" s="4">
         <v>61391556</v>
       </c>
     </row>
@@ -10601,16 +10598,16 @@
       <c r="A96" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="4" t="s">
         <v>410</v>
       </c>
       <c r="D96" s="3">
         <v>108</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E96" s="4">
         <v>52922799</v>
       </c>
     </row>
@@ -10618,16 +10615,16 @@
       <c r="A97" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D97" s="3">
         <v>110</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E97" s="4">
         <v>61844319</v>
       </c>
     </row>
@@ -10635,16 +10632,16 @@
       <c r="A98" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="4" t="s">
         <v>226</v>
       </c>
       <c r="D98" s="3">
         <v>112</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E98" s="4">
         <v>61867473</v>
       </c>
     </row>
@@ -10652,16 +10649,16 @@
       <c r="A99" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="4" t="s">
         <v>336</v>
       </c>
       <c r="D99" s="3">
         <v>114</v>
       </c>
-      <c r="E99" s="6">
+      <c r="E99" s="4">
         <v>58337887</v>
       </c>
     </row>
@@ -10669,16 +10666,16 @@
       <c r="A100" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="4" t="s">
         <v>414</v>
       </c>
       <c r="D100" s="3">
         <v>116</v>
       </c>
-      <c r="E100" s="6">
+      <c r="E100" s="4">
         <v>60413563</v>
       </c>
     </row>
@@ -10686,16 +10683,16 @@
       <c r="A101" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="4" t="s">
         <v>234</v>
       </c>
       <c r="D101" s="3">
         <v>118</v>
       </c>
-      <c r="E101" s="6">
+      <c r="E101" s="4">
         <v>62387981</v>
       </c>
     </row>
@@ -10703,16 +10700,16 @@
       <c r="A102" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="4" t="s">
         <v>416</v>
       </c>
       <c r="D102" s="3">
         <v>120</v>
       </c>
-      <c r="E102" s="6">
+      <c r="E102" s="4">
         <v>62564125</v>
       </c>
     </row>
@@ -10720,16 +10717,16 @@
       <c r="A103" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C103" s="4" t="s">
         <v>418</v>
       </c>
       <c r="D103" s="3">
         <v>122</v>
       </c>
-      <c r="E103" s="6">
+      <c r="E103" s="4">
         <v>62608222</v>
       </c>
     </row>
